--- a/results/yq_test/quantum_volume_cz/Rb2Re4/quantum_volume_cz_20.xlsx
+++ b/results/yq_test/quantum_volume_cz/Rb2Re4/quantum_volume_cz_20.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/quantum_volume_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_2BB1C4B4DDBAD50CCDC3D0F0505060B44379D266" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6102F3F7-FF1F-A84E-89B1-F93656988BA4}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_2BB1C4B4DDBAD50CCDC3D0F0505060B44379D266" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFBF8C66-79A2-4F47-94E7-58D24C9966F5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet!$N$2:$N$17</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet!$P$2:$P$17</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet!$B$2:$B$17</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet!$N$2:$N$17</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet!$P$2:$P$17</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -273,7 +265,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -286,10 +278,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US" sz="1500" baseline="0"/>
               <a:t>Quantum volume circuits</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN" sz="1500" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -306,7 +298,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -325,8 +317,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -346,7 +338,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$B$2:$B$17</c:f>
               <c:numCache>
@@ -402,8 +394,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$N$2:$N$17</c:f>
               <c:numCache>
@@ -459,8 +451,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4196-7540-BEF0-18AFC2963D24}"/>
@@ -485,7 +477,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$B$2:$B$17</c:f>
               <c:numCache>
@@ -541,8 +533,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$P$2:$P$17</c:f>
               <c:numCache>
@@ -598,8 +590,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4196-7540-BEF0-18AFC2963D24}"/>
@@ -614,17 +606,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1607836032"/>
         <c:axId val="1608017568"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1607836032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -632,7 +639,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -645,10 +652,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" sz="1500" baseline="0"/>
                   <a:t>Qubits</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -665,7 +672,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -703,7 +710,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -720,11 +727,9 @@
         </c:txPr>
         <c:crossAx val="1608017568"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1608017568"/>
         <c:scaling>
@@ -755,7 +760,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -768,10 +773,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" sz="1500" baseline="0"/>
                   <a:t>Ratio</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN" sz="1500" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -788,7 +793,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -820,7 +825,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -837,7 +842,7 @@
         </c:txPr>
         <c:crossAx val="1607836032"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
@@ -863,7 +868,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -903,7 +908,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1050" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -1483,9 +1488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
